--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_1994.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_1994.xlsx
@@ -1,17 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\Proyecto_DMD\Excel\Excel_ordenados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18696" windowHeight="6516"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Hoja1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -371,9 +378,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row spans="1:5" ht="15.6" outlineLevel="0" r="1">
+    <row spans="1:5" ht="15.6" x14ac:dyDescent="0.3" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_1994.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_1994.xlsx
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>55709.580000000002</t>
+          <t>55709.58</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>3447.3400000000001</t>
+          <t>3447.34</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>1301.6300000000001</t>
+          <t>1301.63</t>
         </is>
       </c>
       <c r="E53" s="0" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
-          <t>4341.8900000000003</t>
+          <t>4341.89</t>
         </is>
       </c>
       <c r="E54" s="0" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>1853.3800000000001</t>
+          <t>1853.38</t>
         </is>
       </c>
       <c r="E56" s="0" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>91756.979999999996</t>
+          <t>91756.98</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>5109.3100000000004</t>
+          <t>5109.31</t>
         </is>
       </c>
       <c r="E71" s="0" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>5028.1899999999996</t>
+          <t>5028.19</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="D82" s="0" t="inlineStr">
         <is>
-          <t>3710.3299999999999</t>
+          <t>3710.33</t>
         </is>
       </c>
       <c r="E82" s="0" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>2343.1700000000001</t>
+          <t>2343.17</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>55684.080000000002</t>
+          <t>55684.08</t>
         </is>
       </c>
       <c r="E89" s="0" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>63.240000000000002</t>
+          <t>63.24</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="D145" s="0" t="inlineStr">
         <is>
-          <t>8238.2199999999993</t>
+          <t>8238.22</t>
         </is>
       </c>
       <c r="E145" s="0" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
-          <t>3768.7800000000002</t>
+          <t>3768.78</t>
         </is>
       </c>
       <c r="E146" s="0" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D150" s="0" t="inlineStr">
         <is>
-          <t>1953.3900000000001</t>
+          <t>1953.39</t>
         </is>
       </c>
       <c r="E150" s="0" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D155" s="0" t="inlineStr">
         <is>
-          <t>192312.79000000001</t>
+          <t>192312.79</t>
         </is>
       </c>
       <c r="E155" s="0" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>14885.559999999999</t>
+          <t>14885.56</t>
         </is>
       </c>
       <c r="E156" s="0" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="D158" s="0" t="inlineStr">
         <is>
-          <t>69445.520000000004</t>
+          <t>69445.52</t>
         </is>
       </c>
       <c r="E158" s="0" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D162" s="0" t="inlineStr">
         <is>
-          <t>3935.5599999999999</t>
+          <t>3935.56</t>
         </is>
       </c>
       <c r="E162" s="0" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="D171" s="0" t="inlineStr">
         <is>
-          <t>38649.199999999997</t>
+          <t>38649.2</t>
         </is>
       </c>
       <c r="E171" s="0" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D172" s="0" t="inlineStr">
         <is>
-          <t>9581.7299999999996</t>
+          <t>9581.73</t>
         </is>
       </c>
       <c r="E172" s="0" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="D176" s="0" t="inlineStr">
         <is>
-          <t>2064.9000000000001</t>
+          <t>2064.9</t>
         </is>
       </c>
       <c r="E176" s="0" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D182" s="0" t="inlineStr">
         <is>
-          <t>822.35000000000002</t>
+          <t>822.35</t>
         </is>
       </c>
       <c r="E182" s="0" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D189" s="0" t="inlineStr">
         <is>
-          <t>5471.1199999999999</t>
+          <t>5471.12</t>
         </is>
       </c>
       <c r="E189" s="0" t="inlineStr">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="D193" s="0" t="inlineStr">
         <is>
-          <t>43.380000000000003</t>
+          <t>43.38</t>
         </is>
       </c>
       <c r="E193" s="0" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="D282" s="0" t="inlineStr">
         <is>
-          <t>14212.950000000001</t>
+          <t>14212.95</t>
         </is>
       </c>
       <c r="E282" s="0" t="inlineStr">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="D358" s="0" t="inlineStr">
         <is>
-          <t>50381.050000000003</t>
+          <t>50381.05</t>
         </is>
       </c>
       <c r="E358" s="0" t="inlineStr">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="D392" s="0" t="inlineStr">
         <is>
-          <t>334.95999999999998</t>
+          <t>334.96</t>
         </is>
       </c>
       <c r="E392" s="0" t="inlineStr">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="D471" s="0" t="inlineStr">
         <is>
-          <t>1169.0799999999999</t>
+          <t>1169.08</t>
         </is>
       </c>
       <c r="E471" s="0" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="D506" s="0" t="inlineStr">
         <is>
-          <t>51440.650000000001</t>
+          <t>51440.65</t>
         </is>
       </c>
       <c r="E506" s="0" t="inlineStr">
